--- a/Report/teemu_sentiment/Excel_sheet2.0.xlsx
+++ b/Report/teemu_sentiment/Excel_sheet2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Teemu\Tiedostot\GitHub\NLP2019\Report\teemu_sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\NLP2019\Report\teemu_sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65DDFFC-9952-4473-A95F-E3DAB4A158F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B0348-17C1-45F7-9ABB-5A050E6324AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5DCA6940-2792-48A4-9024-4AFC829C8AEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DCA6940-2792-48A4-9024-4AFC829C8AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Negative hate</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hate </t>
   </si>
 </sst>
 </file>
@@ -153,16 +150,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,7 +214,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -210,17 +246,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Textblob</a:t>
+              <a:t>Tweet sentiments</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>(Values are %)</a:t>
+              <a:rPr lang="fi-FI" baseline="0"/>
+              <a:t> (Textblob)</a:t>
             </a:r>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -269,7 +301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hate</c:v>
+                  <c:v>Non-hate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -305,16 +337,16 @@
             <c:numRef>
               <c:f>Taul1!$C$14:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>76.642340000000004</c:v>
+                  <c:v>78.277150000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.408759999999999</c:v>
+                  <c:v>12.54682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.94891</c:v>
+                  <c:v>9.1760300000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,7 +366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non-hate</c:v>
+                  <c:v>Hate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -344,7 +376,13 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -370,16 +408,16 @@
             <c:numRef>
               <c:f>Taul1!$D$14:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>78.277150000000006</c:v>
+                  <c:v>76.642340000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.54682</c:v>
+                  <c:v>12.408759999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1760300000000008</c:v>
+                  <c:v>10.94891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,7 +513,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Percentage %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -596,7 +689,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -628,22 +721,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vader</a:t>
+              <a:t>Tweet sentiments (VADER)</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(Values</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> are %)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -692,7 +771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hate </c:v>
+                  <c:v>Non-hate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -728,16 +807,16 @@
             <c:numRef>
               <c:f>Taul1!$C$19:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31.386859999999999</c:v>
+                  <c:v>44.007899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.386859999999999</c:v>
+                  <c:v>23.595510000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.226280000000003</c:v>
+                  <c:v>32.396999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +836,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non-hate</c:v>
+                  <c:v>Hate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -793,16 +872,16 @@
             <c:numRef>
               <c:f>Taul1!$D$19:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.007899999999999</c:v>
+                  <c:v>31.386859999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.595510000000001</c:v>
+                  <c:v>31.386859999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.396999999999998</c:v>
+                  <c:v>37.226280000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +977,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Percentage %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1019,7 +1153,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1111,7 +1245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$G$13</c:f>
+              <c:f>Taul1!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1132,7 +1266,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$F$14:$F$16</c:f>
+              <c:f>Taul1!$E$14:$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1149,7 +1283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$G$14:$G$16</c:f>
+              <c:f>Taul1!$F$14:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1176,7 +1310,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$H$13</c:f>
+              <c:f>Taul1!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1331,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$F$14:$F$16</c:f>
+              <c:f>Taul1!$E$14:$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1214,7 +1348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$H$14:$H$16</c:f>
+              <c:f>Taul1!$G$14:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3078,10 +3212,10 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>36787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3111,13 +3245,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>75750</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>12974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3220,9 +3354,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F87D4433-4B69-4C04-98F9-3F609668D8A0}" name="Taulukko4" displayName="Taulukko4" ref="B13:D16" totalsRowShown="0">
   <autoFilter ref="B13:D16" xr:uid="{5DD5F436-2216-4B06-8212-1FD65F908DCB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{14011142-35B0-4ACD-9591-A95AC1DE8F10}" name="Textblob"/>
-    <tableColumn id="2" xr3:uid="{762E5699-1C4F-4FC8-8C41-BD0C3B97FBA5}" name="Hate"/>
-    <tableColumn id="3" xr3:uid="{BE8265D6-8FED-43A9-A7BD-D3DB034457F8}" name="Non-hate"/>
+    <tableColumn id="1" xr3:uid="{14011142-35B0-4ACD-9591-A95AC1DE8F10}" name="Textblob" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{762E5699-1C4F-4FC8-8C41-BD0C3B97FBA5}" name="Non-hate" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BE8265D6-8FED-43A9-A7BD-D3DB034457F8}" name="Hate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3232,17 +3366,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93F510E3-813F-42FC-B4B6-FFAB36E96909}" name="Taulukko5" displayName="Taulukko5" ref="B18:D21" totalsRowShown="0">
   <autoFilter ref="B18:D21" xr:uid="{8847C26C-F03F-4B83-8329-2F9774918C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{66FF40B7-440F-4FC9-BCFC-185BA6C6B4D1}" name="Vader"/>
-    <tableColumn id="2" xr3:uid="{DDDBC285-1976-4DA2-BAED-6D91B2FB8ACE}" name="Hate "/>
-    <tableColumn id="3" xr3:uid="{437CFFC1-3C49-4947-A086-79D6E41E7415}" name="Non-hate"/>
+    <tableColumn id="1" xr3:uid="{66FF40B7-440F-4FC9-BCFC-185BA6C6B4D1}" name="Vader" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DDDBC285-1976-4DA2-BAED-6D91B2FB8ACE}" name="Non-hate" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{437CFFC1-3C49-4947-A086-79D6E41E7415}" name="Hate" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE65D63A-62FB-43BC-9D07-E6899690A0DB}" name="Taulukko6" displayName="Taulukko6" ref="F13:H16" totalsRowShown="0">
-  <autoFilter ref="F13:H16" xr:uid="{9D4129F1-D8BD-49F6-B561-87530C92F833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE65D63A-62FB-43BC-9D07-E6899690A0DB}" name="Taulukko6" displayName="Taulukko6" ref="E13:G16" totalsRowShown="0">
+  <autoFilter ref="E13:G16" xr:uid="{9D4129F1-D8BD-49F6-B561-87530C92F833}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ECD562BA-88EA-4F2F-B3F0-4FB685D204FE}" name="Difference"/>
     <tableColumn id="2" xr3:uid="{1A162135-73C9-4D33-B539-11876805F572}" name="Hate"/>
@@ -3253,7 +3387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3551,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E9B647-7E85-4421-B849-A2ED9B5138B5}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,18 +3851,18 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3736,19 +3870,19 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
+        <v>78.277150000000006</v>
+      </c>
+      <c r="D14" s="3">
         <v>76.642340000000004</v>
       </c>
-      <c r="D14" s="3">
-        <v>78.277150000000006</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1">
         <v>45.255480000000006</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="2">
         <v>34.269250000000007</v>
       </c>
     </row>
@@ -3756,19 +3890,19 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
+        <v>12.54682</v>
+      </c>
+      <c r="D15" s="5">
         <v>12.408759999999999</v>
       </c>
-      <c r="D15" s="1">
-        <v>12.54682</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
+      <c r="F15">
+        <v>18.978099999999998</v>
+      </c>
       <c r="G15">
-        <v>18.978099999999998</v>
-      </c>
-      <c r="H15">
         <v>11.048690000000001</v>
       </c>
     </row>
@@ -3776,19 +3910,19 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
+        <v>9.1760300000000008</v>
+      </c>
+      <c r="D16" s="3">
         <v>10.94891</v>
       </c>
-      <c r="D16" s="2">
-        <v>9.1760300000000008</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
+      <c r="F16">
+        <v>26.277370000000005</v>
+      </c>
       <c r="G16">
-        <v>26.277370000000005</v>
-      </c>
-      <c r="H16">
         <v>23.220969999999998</v>
       </c>
     </row>
@@ -3797,43 +3931,43 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
+        <v>44.007899999999999</v>
+      </c>
+      <c r="D19" s="3">
         <v>31.386859999999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>44.007899999999999</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
+        <v>23.595510000000001</v>
+      </c>
+      <c r="D20" s="5">
         <v>31.386859999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>23.595510000000001</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
+        <v>32.396999999999998</v>
+      </c>
+      <c r="D21" s="3">
         <v>37.226280000000003</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32.396999999999998</v>
       </c>
     </row>
   </sheetData>
